--- a/biology/Botanique/Saxifrage_granulée/Saxifrage_granulée.xlsx
+++ b/biology/Botanique/Saxifrage_granulée/Saxifrage_granulée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saxifrage_granul%C3%A9e</t>
+          <t>Saxifrage_granulée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga granulata
 La Saxifrage granulée ou Saxifrage à bulbilles (Saxifraga granulata) est une espèce de plante herbacée vivace de la famille des Saxifragacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saxifrage_granul%C3%A9e</t>
+          <t>Saxifrage_granulée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>De taille moyenne (20 à 50 cm de haut), elle présente des tiges dressées, pleines, poilues ; les feuilles sont assez épaisses, celles de la base arrondies, à long pétiole, celles de la tige (caulinaires) peu nombreuses, palmées (à trois ou cinq lobes), au pétiole court. Les cinq pétales des fleurs sont blancs, égaux, libres, avec l'extrémité arrondie.
-Caractéristiques
-Organes reproducteurs
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De taille moyenne (20 à 50 cm de haut), elle présente des tiges dressées, pleines, poilues ; les feuilles sont assez épaisses, celles de la base arrondies, à long pétiole, celles de la tige (caulinaires) peu nombreuses, palmées (à trois ou cinq lobes), au pétiole court. Les cinq pétales des fleurs sont blancs, égaux, libres, avec l'extrémité arrondie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saxifrage_granulée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saxifrage_granul%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : mai-juillet
 Inflorescence : racème simple
@@ -528,44 +577,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Saxifrage_granul%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saxifrage_granul%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prairies, talus herbeux, plus rarement bois frais.
-Habitat type : pelouses basophiles médioeuropéennes occidentales, mésohydriques, sabulicoles</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saxifrage_granul%C3%A9e</t>
+          <t>Saxifrage_granulée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +598,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prairies, talus herbeux, plus rarement bois frais.
+Habitat type : pelouses basophiles médioeuropéennes occidentales, mésohydriques, sabulicoles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saxifrage_granulée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saxifrage_granul%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasie : Europe (sauf sud-est), et Afrique du Nord.
 Aire de répartition : eurasiatique
